--- a/biology/Zoologie/Gourami_nain/Gourami_nain.xlsx
+++ b/biology/Zoologie/Gourami_nain/Gourami_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichogaster lalius
 Le Gourami nain (Trichogaster lalius) est un poisson de la famille des Osphronemidés. Ce gourami est originaire d'Inde et on le trouve notamment dans le Gange. La vivacité de ses couleurs, avec des stries bleues métalliques, en fait un poisson d'aquarium très populaire, surtout connu sous son ancien nom de Colisa lalia.
@@ -514,17 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-Le corps est haut et comprimé latéralement. Comme chez l'ensemble des poissons du genre Trichogaster, les nageoires ventrales de T. lalius forment des filaments allongés qui servent d'organes tactiles. Les nageoires anale et dorsale débutent très en avant du corps pour terminer à la base de la caudale.
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps est haut et comprimé latéralement. Comme chez l'ensemble des poissons du genre Trichogaster, les nageoires ventrales de T. lalius forment des filaments allongés qui servent d'organes tactiles. Les nageoires anale et dorsale débutent très en avant du corps pour terminer à la base de la caudale.
 Le Gourami nain présente un dimorphisme sexuel important. Le mâle mesure de 5 à 7 cm, la femelle est plus petite. Dans sa livrée naturelle, le mâle est bleuté, strié de bandes rouge orangé verticales. Sa nageoire dorsale se termine en pointe. La femelle, quant à elle, est uniformément gris argenté et sa nageoire dorsale est arrondie.
 Il existe des variétés d'élevage différemment colorées.
-Anatomie
-Trichogaster lalius possède un labyrinthe tout comme le Combattant (Betta splendens). Cet organe respiratoire annexe lui permet de respirer, si nécessaire, l'air atmosphérique en surface.
-Comportement et reproduction
-Pour les faire reproduire, la température doit être à 28 °C et il faut baisser le pH et la dureté de l'eau. L'eau doit être légèrement acide et douce. Il doit y avoir un faible débit de la pompe afin de ne pas détruire le nid de bulle et beaucoup de plantes (les plantes de surface sont indispensables car elles servent de « support » au nid).  Tous ces paramètres vont favoriser la fabrication du nid de bulles.
-Ovipare, le mâle fait seul son nid, mais peut être aidé de la femelle. Le mâle seul soignera la ponte.Territorial après le frai, il peut alors se montrer agressif. Dans ce cas là, il faut prévoir un autre bac pour retirer la femelle.
-Habitat d'origine
-L'espèce est originaire d'Inde où il peuple notamment le Gange. Il vit dans les cours d'eau riches en végétation et profonds de quelques centimètres environ.
 </t>
         </is>
       </c>
@@ -550,23 +560,243 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trichogaster lalius possède un labyrinthe tout comme le Combattant (Betta splendens). Cet organe respiratoire annexe lui permet de respirer, si nécessaire, l'air atmosphérique en surface.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gourami_nain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comportement et reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les faire reproduire, la température doit être à 28 °C et il faut baisser le pH et la dureté de l'eau. L'eau doit être légèrement acide et douce. Il doit y avoir un faible débit de la pompe afin de ne pas détruire le nid de bulle et beaucoup de plantes (les plantes de surface sont indispensables car elles servent de « support » au nid).  Tous ces paramètres vont favoriser la fabrication du nid de bulles.
+Ovipare, le mâle fait seul son nid, mais peut être aidé de la femelle. Le mâle seul soignera la ponte.Territorial après le frai, il peut alors se montrer agressif. Dans ce cas là, il faut prévoir un autre bac pour retirer la femelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gourami_nain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat d'origine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Inde où il peuple notamment le Gange. Il vit dans les cours d'eau riches en végétation et profonds de quelques centimètres environ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gourami_nain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les gouramis nains doivent être maintenus dans une eau à 24-30 °C[4], avec un pH plutôt neutre compris entre 6,8 et 7[5] et une dureté de 4 °d GH à 12 °d GH[6].
+Les gouramis nains doivent être maintenus dans une eau à 24-30 °C, avec un pH plutôt neutre compris entre 6,8 et 7 et une dureté de 4 °d GH à 12 °d GH.
 On peut garder facilement un couple dans un bac de 100 litres mais un tel volume de bac ne peut accueillir deux mâles ensemble : dans de telles conditions ceux-ci n'auraient pas assez de place pour faire leur territoire et se battraient, jusqu'à la mort du plus faible. Pour maintenir deux mâles, un bac de 200 litres avec beaucoup de cachettes convient très bien[réf. nécessaire].
-Élevage
-Leur faire manger des proies vivantes (artémias, vers de vase) pour déclencher la ponte et mettre du Riccia fluitans ou des plantes de surface (lentilles d'eau telles Lemna minor, Pistia stratiotes), qui offriront au couple un emplacement pour la construction d'un nid de bulles[7].
-Pour la reproduction, tout comme pour la maintenance, il faut distinguer les poissons d'origine sauvage et les poissons provenant d'élevage[8]. En captivité, c'est un brusque changement d'eau et un léger échauffement de l'eau pour favoriser une humidité ambiante à la surface de l'eau qui va permettre de déclencher la reproduction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gourami_nain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur faire manger des proies vivantes (artémias, vers de vase) pour déclencher la ponte et mettre du Riccia fluitans ou des plantes de surface (lentilles d'eau telles Lemna minor, Pistia stratiotes), qui offriront au couple un emplacement pour la construction d'un nid de bulles.
+Pour la reproduction, tout comme pour la maintenance, il faut distinguer les poissons d'origine sauvage et les poissons provenant d'élevage. En captivité, c'est un brusque changement d'eau et un léger échauffement de l'eau pour favoriser une humidité ambiante à la surface de l'eau qui va permettre de déclencher la reproduction.
 Pour les alevins, il est bien d'ajouter (en bac spécifique) de la mousse de Java (Vesicularia dubyana) au fond de l'aquarium pour permettre aux alevins fraîchement éclos de s'y cacher et de se nourrir du zooplancton qui s'y développe.
 Les variétés d'élevage de cette espèce sont beaucoup plus faibles que les individus de la souche naturelle (Colisas à la robe bleue striée de bandes rouges). 
-Maladies
-Si l'eau est trop acide (pH inférieur à 6,5) ou trop alcaline (pH supérieur à 7,3) les Colisa sont confrontés à des problèmes cutanés et à des infections difficiles à traiter, et deviennent sensibles à l'oodiniose (la maladie du velours).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gourami_nain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l'eau est trop acide (pH inférieur à 6,5) ou trop alcaline (pH supérieur à 7,3) les Colisa sont confrontés à des problèmes cutanés et à des infections difficiles à traiter, et deviennent sensibles à l'oodiniose (la maladie du velours).
 Si les paramètres du bac dans lequel ils vivent ne leur conviennent pas, les poissons sont fragilisés et attrapent de nombreuses maladies ; en cas de blessure les plaies guérissent mal et se transforment parfois en ulcères. Ce type de lésion est impossible à soigner complètement et le poisson retombe fréquemment malade et finalement en meurt.
-Variétés d'élevage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gourami_nain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Variétés d'élevage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			variété flamme
 			variété néon rouge
 			variété Cobalt
@@ -575,64 +805,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gourami_nain</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gourami_nain</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, lalia, reprend le nom vernaculaire indien de ce poisson en dialecte Ooriah[9].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gourami_nain</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, lalia, reprend le nom vernaculaire indien de ce poisson en dialecte Ooriah.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gourami_nain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_nain</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(en) Hamilton, 1822 : An account of the fishes found in the river Ganges and its branches. Edinburgh &amp; London, p. 1-405[10] (texte intégral).</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(en) Hamilton, 1822 : An account of the fishes found in the river Ganges and its branches. Edinburgh &amp; London, p. 1-405 (texte intégral).</t>
         </is>
       </c>
     </row>
